--- a/data/trans_dic/P24_8_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_8_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia</t>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 12,32</t>
+          <t>0,78; 6,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,99</t>
+          <t>1,63; 7,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,32</t>
+          <t>1,09; 7,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,32</t>
+          <t>1,14; 7,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 14,4</t>
+          <t>1,19; 7,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,51</t>
+          <t>6,13; 13,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,25</t>
+          <t>6,67; 15,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,22; 17,33</t>
+          <t>6,94; 15,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,68</t>
+          <t>11,88; 22,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,15</t>
+          <t>8,75; 20,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,14</t>
+          <t>4,21; 9,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,88</t>
+          <t>5,12; 10,95</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 10,61</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 13,41</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 13,09</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,5</t>
+          <t>2,48; 10,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,59</t>
+          <t>2,77; 11,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,85</t>
+          <t>1,65; 9,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 13,39</t>
+          <t>4,51; 18,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,19; 18,48</t>
+          <t>3,27; 13,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 17,35</t>
+          <t>11,58; 23,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,09; 17,94</t>
+          <t>8,92; 20,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 14,16</t>
+          <t>6,06; 16,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,88</t>
+          <t>5,21; 14,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,79</t>
+          <t>7,42; 18,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 12,16</t>
+          <t>8,18; 16,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,52</t>
+          <t>7,05; 14,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 11,09</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 13,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 13,72</t>
         </is>
       </c>
     </row>
@@ -936,17 +1021,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1041,57 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 47,66</t>
+          <t>0,0; 68,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,3</t>
+          <t>0,0; 21,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,64</t>
+          <t>0,0; 16,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 22,47</t>
+          <t>0,0; 25,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 18,05</t>
+          <t>8,94; 34,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 27,9</t>
+          <t>4,62; 24,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 24,0</t>
+          <t>8,65; 35,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 33,75</t>
+          <t>6,23; 30,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 11,55</t>
+          <t>6,55; 31,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 16,93</t>
+          <t>10,04; 49,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 11,07</t>
+          <t>2,73; 16,95</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 21,27</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 17,3</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 23,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 13,03</t>
+          <t>3,14; 14,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,39</t>
+          <t>2,79; 7,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,04</t>
+          <t>1,96; 6,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,86</t>
+          <t>2,88; 9,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 14,69</t>
+          <t>2,96; 8,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,42</t>
+          <t>10,44; 17,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 13,97</t>
+          <t>9,09; 15,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,18</t>
+          <t>8,66; 15,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,44</t>
+          <t>10,23; 17,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,35</t>
+          <t>10,45; 18,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 9,46</t>
+          <t>7,91; 14,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 10,02</t>
+          <t>6,7; 11,21</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,09</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 12,16</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 12,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9994</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16807</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10833</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12332</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18317</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40606</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53175</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46676</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>67937</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>79580</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50599</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>69982</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>57510</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>80269</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>97898</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2858; 23943</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7016; 34153</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3989; 26017</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4359; 27512</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6131; 40533</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26694; 60385</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33914; 78386</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29212; 65269</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48154; 93108</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49299; 116786</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33739; 74535</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48071; 102814</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>39133; 83505</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>53664; 105465</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>64620; 141317</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16431</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22054</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14304</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28166</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29613</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>60468</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>57554</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34508</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30399</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52909</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>76900</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79608</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>48812</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>58565</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>82523</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7549; 32594</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9968; 41904</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5255; 30414</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14536; 60799</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13498; 53858</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>40541; 82070</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37774; 86323</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20187; 54363</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17456; 49336</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32163; 79049</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>53576; 105212</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>55172; 113396</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>31227; 72300</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>39054; 87919</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>57896; 116019</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21894</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2517</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8450</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17029</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12426</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16071</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13482</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18505</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38923</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15894</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>18588</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13482</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>26955</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 57737</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21624</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13106</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 30750</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7383; 28669</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4677; 24877</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7051; 28919</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5142; 25460</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7293; 35568</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16805; 82345</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5545; 34396</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8763; 34276</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5665; 29085</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11368; 53506</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48320</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42328</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40498</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>56381</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>118103</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>123155</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>97255</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>111818</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>150994</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>166423</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>165484</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>124910</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>152316</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>207375</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23696; 110020</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24869; 67867</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14947; 48134</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22700; 72028</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31009; 89241</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>90618; 150095</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>93942; 156984</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72401; 127029</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>84165; 143964</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>115823; 199966</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>128357; 233311</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>128998; 215833</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>98369; 161414</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>121352; 196027</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>160603; 269455</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
